--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3329863333333333</v>
+        <v>0.9238883333333332</v>
       </c>
       <c r="H2">
-        <v>0.9989589999999999</v>
+        <v>2.771665</v>
       </c>
       <c r="I2">
-        <v>0.002397412224472272</v>
+        <v>0.006623569135547428</v>
       </c>
       <c r="J2">
-        <v>0.002397412224472272</v>
+        <v>0.006623569135547428</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.91824966666667</v>
+        <v>3.5258</v>
       </c>
       <c r="N2">
-        <v>38.754749</v>
+        <v>10.5774</v>
       </c>
       <c r="O2">
-        <v>0.5690183414937939</v>
+        <v>0.2648936965472837</v>
       </c>
       <c r="P2">
-        <v>0.5690183414937939</v>
+        <v>0.2648936965472837</v>
       </c>
       <c r="Q2">
-        <v>4.301600589587889</v>
+        <v>3.257445485666667</v>
       </c>
       <c r="R2">
-        <v>38.714405306291</v>
+        <v>29.317009371</v>
       </c>
       <c r="S2">
-        <v>0.00136417152784616</v>
+        <v>0.001754541712651655</v>
       </c>
       <c r="T2">
-        <v>0.001364171527846159</v>
+        <v>0.001754541712651655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3329863333333333</v>
+        <v>0.9238883333333332</v>
       </c>
       <c r="H3">
-        <v>0.9989589999999999</v>
+        <v>2.771665</v>
       </c>
       <c r="I3">
-        <v>0.002397412224472272</v>
+        <v>0.006623569135547428</v>
       </c>
       <c r="J3">
-        <v>0.002397412224472272</v>
+        <v>0.006623569135547428</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>19.763442</v>
       </c>
       <c r="O3">
-        <v>0.2901776241422384</v>
+        <v>0.4949431058556773</v>
       </c>
       <c r="P3">
-        <v>0.2901776241422384</v>
+        <v>0.4949431058556773</v>
       </c>
       <c r="Q3">
-        <v>2.193652028542</v>
+        <v>6.086404496769998</v>
       </c>
       <c r="R3">
-        <v>19.742868256878</v>
+        <v>54.77764047092999</v>
       </c>
       <c r="S3">
-        <v>0.0006956753833869226</v>
+        <v>0.003278289879797647</v>
       </c>
       <c r="T3">
-        <v>0.0006956753833869225</v>
+        <v>0.003278289879797647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3329863333333333</v>
+        <v>0.9238883333333332</v>
       </c>
       <c r="H4">
-        <v>0.9989589999999999</v>
+        <v>2.771665</v>
       </c>
       <c r="I4">
-        <v>0.002397412224472272</v>
+        <v>0.006623569135547428</v>
       </c>
       <c r="J4">
-        <v>0.002397412224472272</v>
+        <v>0.006623569135547428</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.589893</v>
       </c>
       <c r="O4">
-        <v>0.1408040343639677</v>
+        <v>0.240163197597039</v>
       </c>
       <c r="P4">
-        <v>0.1408040343639677</v>
+        <v>0.240163197597039</v>
       </c>
       <c r="Q4">
-        <v>1.064434435709667</v>
+        <v>2.953330086871666</v>
       </c>
       <c r="R4">
-        <v>9.579909921386999</v>
+        <v>26.579970781845</v>
       </c>
       <c r="S4">
-        <v>0.0003375653132391901</v>
+        <v>0.001590737543098126</v>
       </c>
       <c r="T4">
-        <v>0.00033756531323919</v>
+        <v>0.001590737543098126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>414.755051</v>
       </c>
       <c r="I5">
-        <v>0.9953750148194476</v>
+        <v>0.9911582946048672</v>
       </c>
       <c r="J5">
-        <v>0.9953750148194476</v>
+        <v>0.9911582946048673</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.91824966666667</v>
+        <v>3.5258</v>
       </c>
       <c r="N5">
-        <v>38.754749</v>
+        <v>10.5774</v>
       </c>
       <c r="O5">
-        <v>0.5690183414937939</v>
+        <v>0.2648936965472837</v>
       </c>
       <c r="P5">
-        <v>0.5690183414937939</v>
+        <v>0.2648936965472837</v>
       </c>
       <c r="Q5">
-        <v>1785.969766443022</v>
+        <v>487.4477862719333</v>
       </c>
       <c r="R5">
-        <v>16073.7278979872</v>
+        <v>4387.0300764474</v>
       </c>
       <c r="S5">
-        <v>0.5663866400969226</v>
+        <v>0.2625515845213849</v>
       </c>
       <c r="T5">
-        <v>0.5663866400969226</v>
+        <v>0.2625515845213849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>414.755051</v>
       </c>
       <c r="I6">
-        <v>0.9953750148194476</v>
+        <v>0.9911582946048672</v>
       </c>
       <c r="J6">
-        <v>0.9953750148194476</v>
+        <v>0.9911582946048673</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>19.763442</v>
       </c>
       <c r="O6">
-        <v>0.2901776241422384</v>
+        <v>0.4949431058556773</v>
       </c>
       <c r="P6">
-        <v>0.2901776241422384</v>
+        <v>0.4949431058556773</v>
       </c>
       <c r="Q6">
         <v>910.7763771828378</v>
@@ -818,10 +818,10 @@
         <v>8196.987394645541</v>
       </c>
       <c r="S6">
-        <v>0.2888355569308526</v>
+        <v>0.4905669647263494</v>
       </c>
       <c r="T6">
-        <v>0.2888355569308526</v>
+        <v>0.4905669647263494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>414.755051</v>
       </c>
       <c r="I7">
-        <v>0.9953750148194476</v>
+        <v>0.9911582946048672</v>
       </c>
       <c r="J7">
-        <v>0.9953750148194476</v>
+        <v>0.9911582946048673</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.589893</v>
       </c>
       <c r="O7">
-        <v>0.1408040343639677</v>
+        <v>0.240163197597039</v>
       </c>
       <c r="P7">
-        <v>0.1408040343639677</v>
+        <v>0.240163197597039</v>
       </c>
       <c r="Q7">
         <v>441.9396178110603</v>
@@ -880,10 +880,10 @@
         <v>3977.456560299543</v>
       </c>
       <c r="S7">
-        <v>0.1401528177916724</v>
+        <v>0.2380397453571329</v>
       </c>
       <c r="T7">
-        <v>0.1401528177916724</v>
+        <v>0.2380397453571329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>0.3093966666666667</v>
       </c>
       <c r="H8">
-        <v>0.9281900000000001</v>
+        <v>0.92819</v>
       </c>
       <c r="I8">
-        <v>0.002227572956080198</v>
+        <v>0.0022181362595854</v>
       </c>
       <c r="J8">
-        <v>0.002227572956080198</v>
+        <v>0.0022181362595854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.91824966666667</v>
+        <v>3.5258</v>
       </c>
       <c r="N8">
-        <v>38.754749</v>
+        <v>10.5774</v>
       </c>
       <c r="O8">
-        <v>0.5690183414937939</v>
+        <v>0.2648936965472837</v>
       </c>
       <c r="P8">
-        <v>0.5690183414937939</v>
+        <v>0.2648936965472837</v>
       </c>
       <c r="Q8">
-        <v>3.996863386034446</v>
+        <v>1.090870767333333</v>
       </c>
       <c r="R8">
-        <v>35.97177047431001</v>
+        <v>9.817836906</v>
       </c>
       <c r="S8">
-        <v>0.001267529869025182</v>
+        <v>0.0005875703132471419</v>
       </c>
       <c r="T8">
-        <v>0.001267529869025182</v>
+        <v>0.0005875703132471419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>0.3093966666666667</v>
       </c>
       <c r="H9">
-        <v>0.9281900000000001</v>
+        <v>0.92819</v>
       </c>
       <c r="I9">
-        <v>0.002227572956080198</v>
+        <v>0.0022181362595854</v>
       </c>
       <c r="J9">
-        <v>0.002227572956080198</v>
+        <v>0.0022181362595854</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>19.763442</v>
       </c>
       <c r="O9">
-        <v>0.2901776241422384</v>
+        <v>0.4949431058556773</v>
       </c>
       <c r="P9">
-        <v>0.2901776241422384</v>
+        <v>0.4949431058556773</v>
       </c>
       <c r="Q9">
         <v>2.03824769222</v>
@@ -1004,10 +1004,10 @@
         <v>18.34422922998</v>
       </c>
       <c r="S9">
-        <v>0.0006463918279988544</v>
+        <v>0.001097851249530293</v>
       </c>
       <c r="T9">
-        <v>0.0006463918279988544</v>
+        <v>0.001097851249530293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>0.3093966666666667</v>
       </c>
       <c r="H10">
-        <v>0.9281900000000001</v>
+        <v>0.92819</v>
       </c>
       <c r="I10">
-        <v>0.002227572956080198</v>
+        <v>0.0022181362595854</v>
       </c>
       <c r="J10">
-        <v>0.002227572956080198</v>
+        <v>0.0022181362595854</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>9.589893</v>
       </c>
       <c r="O10">
-        <v>0.1408040343639677</v>
+        <v>0.240163197597039</v>
       </c>
       <c r="P10">
-        <v>0.1408040343639677</v>
+        <v>0.240163197597039</v>
       </c>
       <c r="Q10">
-        <v>0.9890269759633334</v>
+        <v>0.9890269759633333</v>
       </c>
       <c r="R10">
         <v>8.90124278367</v>
       </c>
       <c r="S10">
-        <v>0.0003136512590561613</v>
+        <v>0.0005327146968079654</v>
       </c>
       <c r="T10">
-        <v>0.0003136512590561613</v>
+        <v>0.0005327146968079654</v>
       </c>
     </row>
   </sheetData>
